--- a/bom.xlsx
+++ b/bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4095" yWindow="3360" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32895" yWindow="3450" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
@@ -74,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -83,6 +83,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,15 +434,15 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col width="50.28515625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="29" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.85546875" customWidth="1" style="1" min="3" max="5"/>
-    <col width="8.85546875" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="1" min="3" max="8"/>
+    <col width="8.85546875" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,55 +470,62 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>0.1 µF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+          <t>0.1 µF ±10% 16V Ceramic Capacitor X5R 0402 (1005 Metric)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>399-C0805C104K5RAC7800CT-ND</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>A2</t>
+          <t>478-1126-1-ND</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>D8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>10 kOhms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Moisture Resistant Thick Film</t>
+          <t>CAP CER 1PF 50V C0G/NP0 0603</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>311-10.0KCRCT-ND</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>100</v>
+          <t>C0603C109C5GACAUTO</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>++</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>IJ11</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>4.7 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+          <t>RES 47K OHM 1% 1/10W 0603</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>311-4.7KGRCT-ND</t>
+          <t>RC0603FR-0747KL</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>R8</t>
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>EF9</t>
         </is>
       </c>
     </row>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -434,15 +434,15 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col width="50.28515625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="29" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.85546875" customWidth="1" style="1" min="3" max="8"/>
-    <col width="8.85546875" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="1" min="3" max="13"/>
+    <col width="8.85546875" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
